--- a/src/main/update personenbezogene Daten/2 Update Mitarbeiterentlassung.xlsx
+++ b/src/main/update personenbezogene Daten/2 Update Mitarbeiterentlassung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\main\Mitarbeiterdaten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\main\update personenbezogene Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3E5F30-E154-4792-9F31-AC319E1FA0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7593D7-DFE4-4325-9D08-57E0FDD204BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Daten</t>
   </si>
@@ -36,25 +36,19 @@
     <t>Personalnummer</t>
   </si>
   <si>
-    <t>M100001</t>
-  </si>
-  <si>
     <t>letzter Arbeitstag</t>
   </si>
   <si>
-    <t>31.12.2024</t>
-  </si>
-  <si>
     <t>Austrittsgrund</t>
   </si>
   <si>
-    <t>Austrittsgrund-Kategorie</t>
-  </si>
-  <si>
-    <t>Umsatzrückgang</t>
-  </si>
-  <si>
-    <t>betriebsbedingt</t>
+    <t>M100002</t>
+  </si>
+  <si>
+    <t>Umsatzrueckgang</t>
+  </si>
+  <si>
+    <t>31.12.2030</t>
   </si>
 </sst>
 </file>
@@ -78,24 +72,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,13 +92,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -397,9 +376,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -416,35 +397,27 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/update personenbezogene Daten/2 Update Mitarbeiterentlassung.xlsx
+++ b/src/main/update personenbezogene Daten/2 Update Mitarbeiterentlassung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\main\update personenbezogene Daten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\test\testdaten_update_mitarbeiterentlassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7593D7-DFE4-4325-9D08-57E0FDD204BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9366CCAE-5542-4A34-B05F-B2DAC1239A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -379,7 +379,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
